--- a/bin/Debug/net8.0/excels/LibroMayor_FrescaTech.xlsx
+++ b/bin/Debug/net8.0/excels/LibroMayor_FrescaTech.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arik\source\repos\excel1\bin\Debug\net8.0\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DC1D65-0D6F-4078-89AB-42F0168F692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banco" sheetId="2" r:id="rId1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,9 +145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,9 +185,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,60 +430,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="B2">
         <v>300000</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="B3">
         <v>250000</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="C4">
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="C5">
         <v>15000</v>
       </c>
     </row>
@@ -492,43 +493,43 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="C2">
         <v>43388</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="C3">
         <v>17355</v>
       </c>
     </row>
@@ -538,35 +539,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="B2">
         <v>80000</v>
       </c>
     </row>
@@ -576,34 +577,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="B2">
         <v>15000</v>
       </c>
     </row>
@@ -613,43 +614,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="C2">
         <v>300000</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="C3">
         <v>50000</v>
       </c>
     </row>
@@ -659,44 +660,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="B2">
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="B3">
         <v>50000</v>
       </c>
     </row>
@@ -706,35 +707,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="B2">
         <v>100000</v>
       </c>
     </row>
@@ -744,43 +745,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="B2">
         <v>21000</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="B3">
         <v>5250</v>
       </c>
     </row>
@@ -790,43 +791,43 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="C2">
         <v>121000</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="C3">
         <v>30250</v>
       </c>
     </row>
@@ -836,35 +837,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="B2">
         <v>25000</v>
       </c>
     </row>
@@ -874,59 +875,59 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="B2">
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="B3">
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="C4">
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="C5">
         <v>50000</v>
       </c>
     </row>
@@ -936,43 +937,43 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="C2">
         <v>206612</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="C3">
         <v>82645</v>
       </c>
     </row>
